--- a/haunting_mars/stats_cale.xlsx
+++ b/haunting_mars/stats_cale.xlsx
@@ -1,18 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FE30B2-5BEA-1F47-AED7-05263F3538A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="-20" windowWidth="20460" windowHeight="20300" tabRatio="500"/>
+    <workbookView xWindow="10780" yWindow="500" windowWidth="20460" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F" sheetId="1" r:id="rId1"/>
     <sheet name="OUTPUT" sheetId="2" r:id="rId2"/>
     <sheet name="SkillFormulas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>ST</t>
   </si>
@@ -155,16 +172,25 @@
     <t>Cale Ortega</t>
   </si>
   <si>
-    <t>Synth (RR C Flexi-Skin)</t>
-  </si>
-  <si>
-    <t>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Chummy</t>
+    <t>Splicer</t>
+  </si>
+  <si>
+    <t>Mesh Inserts, Cortical Stack, Basic Biomods, Handsome +2, Intersex, Pheromones</t>
+  </si>
+  <si>
+    <t>LINE 2:</t>
+  </si>
+  <si>
+    <t>blond, 176 cm, 63 kg</t>
+  </si>
+  <si>
+    <t>Sex Appeal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -187,6 +213,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,12 +237,14 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -402,20 +431,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="165">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -586,6 +613,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -910,14 +945,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="C4:H4"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="4.83203125" customWidth="1"/>
@@ -926,7 +961,7 @@
     <col min="6" max="8" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -938,7 +973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,20 +992,24 @@
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="20">
+      <c r="I2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:H3" si="0">C4+C5</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
@@ -978,67 +1017,66 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>44</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4">
         <v>11</v>
       </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
       <c r="F4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
         <f>(D3+H3)/4+L5</f>
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1046,43 +1084,43 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="77" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="8" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="41" customHeight="1">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1102,7 +1140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1124,7 +1162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1143,7 +1181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1155,14 +1193,14 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1181,7 +1219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1200,7 +1238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1219,7 +1257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1238,7 +1276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1250,14 +1288,14 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1276,7 +1314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1295,7 +1333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1314,7 +1352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1333,7 +1371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1352,7 +1390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1364,14 +1402,14 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1383,14 +1421,14 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1402,14 +1440,14 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1421,14 +1459,14 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28">
         <f>INDEX($C$3:$H$3,(MATCH($B28,$2:$2,0)-2))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1447,7 +1485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1466,7 +1504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1478,24 +1516,36 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="E32" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H32" t="e">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>-1</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E33" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1505,7 +1555,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="5:8">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E34" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1515,7 +1565,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="5:8">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E35" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1525,7 +1575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="5:8">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E36" s="1" t="e">
         <f t="shared" ref="E36:E41" si="4">H36+C36+D36</f>
         <v>#N/A</v>
@@ -1535,7 +1585,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="5:8">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1545,7 +1595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="5:8">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E38" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1555,7 +1605,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="5:8">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E39" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1565,7 +1615,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="5:8">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E40" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1575,7 +1625,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E41" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1602,103 +1652,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="str">
         <f>F!A1</f>
         <v>Cale Ortega</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>F!J1</f>
         <v>Psychologist, born 2110, Pavonis City, Mars</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>UPPER(F!A4)&amp;": "</f>
-        <v xml:space="preserve">SYNTH (RR C FLEXI-SKIN): </v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <f>UPPER(F!A4)&amp;": "&amp;(F!J2)</f>
+        <v>SPLICER: blond, 176 cm, 63 kg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 12 DX 10 IQ 12 WILL 10 PER 11 HT 11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>ST 11 DX 11 IQ 12 WILL 11 PER 12 HT 12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>"Speed "&amp;F!K5</f>
-        <v>Speed 5,25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>Speed 5,75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A7</f>
-        <v>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Chummy</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>Mesh Inserts, Cortical Stack, Basic Biomods, Handsome +2, Intersex, Pheromones</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>SkillFormulas!E22&amp;SkillFormulas!F22&amp;SkillFormulas!G22&amp;SkillFormulas!H22&amp;SkillFormulas!I22&amp;SkillFormulas!J22</f>
         <v xml:space="preserve">Intelligence Aptitude 1, Alertness 1, </v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>F!A9</f>
         <v>Adaptability +1, Addiction: VR, Status -2 (Bodiless), Secret: Infiltrator</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>SkillFormulas!G7</f>
         <v xml:space="preserve">Spanish (N/N), </v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>SkillFormulas!$G$1</f>
-        <v xml:space="preserve">Research-14, Psychology-15, Detect Lies-12, Fast Talk-14, Savoir-Faire-15, Sociology-14, </v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v xml:space="preserve">Research-14, Psychology-15, Detect Lies-13, Fast Talk-14, Savoir-Faire-15, Sociology-14, </v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>SkillFormulas!$G$2</f>
-        <v xml:space="preserve">Law-12, Karate-11, Administration-14, Public Speaking-12, Performance-12, Diplomacy-13, </v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v xml:space="preserve">Law-12, Karate-12, Administration-14, Public Speaking-12, Performance-12, Diplomacy-13, </v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>SkillFormulas!$G$3</f>
-        <v xml:space="preserve">Connoisseur (Music)-12, Free Fall-10, Sport: Squash-10, Guns (Pistol)-9, Dancing-11, Writing-12, </v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v xml:space="preserve">Connoisseur (Music)-12, Free Fall-11, Sport: Squash-11, Guns (Pistol)-10, Dancing-12, Writing-12, </v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>SkillFormulas!G4</f>
-        <v xml:space="preserve">Politics-10, Carousing-13, </v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v xml:space="preserve">Politics-10, Carousing-14, Sex Appeal-13, </v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>SkillFormulas!G5</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>F!J7</f>
         <v>Wants to put his family back together</v>
@@ -1716,19 +1766,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>F!A12&amp;"-"&amp;F!E12&amp;", "</f>
         <v xml:space="preserve">Research-14, </v>
@@ -1747,10 +1797,10 @@
       </c>
       <c r="G1" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6</f>
-        <v xml:space="preserve">Research-14, Psychology-15, Detect Lies-12, Fast Talk-14, Savoir-Faire-15, Sociology-14, </v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v xml:space="preserve">Research-14, Psychology-15, Detect Lies-13, Fast Talk-14, Savoir-Faire-15, Sociology-14, </v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>F!A13&amp;"-"&amp;F!E13&amp;", "</f>
         <v xml:space="preserve">Psychology-15, </v>
@@ -1769,17 +1819,17 @@
       </c>
       <c r="G2" t="str">
         <f>B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12</f>
-        <v xml:space="preserve">Law-12, Karate-11, Administration-14, Public Speaking-12, Performance-12, Diplomacy-13, </v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v xml:space="preserve">Law-12, Karate-12, Administration-14, Public Speaking-12, Performance-12, Diplomacy-13, </v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>F!A14&amp;"-"&amp;F!E14&amp;", "</f>
-        <v xml:space="preserve">Detect Lies-12, </v>
+        <v xml:space="preserve">Detect Lies-13, </v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Detect Lies-12, </v>
+        <v xml:space="preserve">Detect Lies-13, </v>
       </c>
       <c r="D3" t="str">
         <f>F!J14&amp;", "</f>
@@ -1791,10 +1841,10 @@
       </c>
       <c r="G3" t="str">
         <f>B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18</f>
-        <v xml:space="preserve">Connoisseur (Music)-12, Free Fall-10, Sport: Squash-10, Guns (Pistol)-9, Dancing-11, Writing-12, </v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v xml:space="preserve">Connoisseur (Music)-12, Free Fall-11, Sport: Squash-11, Guns (Pistol)-10, Dancing-12, Writing-12, </v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>F!A15&amp;"-"&amp;F!E15&amp;", "</f>
         <v xml:space="preserve">Fast Talk-14, </v>
@@ -1813,10 +1863,10 @@
       </c>
       <c r="G4" t="str">
         <f>B19&amp;B20&amp;B21&amp;B22&amp;B23&amp;B24</f>
-        <v xml:space="preserve">Politics-10, Carousing-13, </v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v xml:space="preserve">Politics-10, Carousing-14, Sex Appeal-13, </v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>F!A16&amp;"-"&amp;F!E16&amp;", "</f>
         <v xml:space="preserve">Savoir-Faire-15, </v>
@@ -1838,7 +1888,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A17&amp;"-"&amp;F!E17&amp;", "</f>
         <v xml:space="preserve">Sociology-14, </v>
@@ -1856,7 +1906,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>F!A18&amp;"-"&amp;F!E18&amp;", "</f>
         <v xml:space="preserve">Law-12, </v>
@@ -1878,14 +1928,14 @@
         <v xml:space="preserve">Spanish (N/N), </v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>F!A19&amp;"-"&amp;F!E19&amp;", "</f>
-        <v xml:space="preserve">Karate-11, </v>
+        <v xml:space="preserve">Karate-12, </v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Karate-11, </v>
+        <v xml:space="preserve">Karate-12, </v>
       </c>
       <c r="D8" t="str">
         <f>F!J19&amp;", "</f>
@@ -1896,7 +1946,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>F!A20&amp;"-"&amp;F!E20&amp;", "</f>
         <v xml:space="preserve">Administration-14, </v>
@@ -1914,7 +1964,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>F!A21&amp;"-"&amp;F!E21&amp;", "</f>
         <v xml:space="preserve">Public Speaking-12, </v>
@@ -1924,7 +1974,7 @@
         <v xml:space="preserve">Public Speaking-12, </v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>F!A22&amp;"-"&amp;F!E22&amp;", "</f>
         <v xml:space="preserve">Performance-12, </v>
@@ -1934,7 +1984,7 @@
         <v xml:space="preserve">Performance-12, </v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>F!A23&amp;"-"&amp;F!E23&amp;", "</f>
         <v xml:space="preserve">Diplomacy-13, </v>
@@ -1944,7 +1994,7 @@
         <v xml:space="preserve">Diplomacy-13, </v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>F!A24&amp;"-"&amp;F!E24&amp;", "</f>
         <v xml:space="preserve">Connoisseur (Music)-12, </v>
@@ -1954,47 +2004,47 @@
         <v xml:space="preserve">Connoisseur (Music)-12, </v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>F!A25&amp;"-"&amp;F!E25&amp;", "</f>
-        <v xml:space="preserve">Free Fall-10, </v>
+        <v xml:space="preserve">Free Fall-11, </v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Free Fall-10, </v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v xml:space="preserve">Free Fall-11, </v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>F!A26&amp;"-"&amp;F!E26&amp;", "</f>
-        <v xml:space="preserve">Sport: Squash-10, </v>
+        <v xml:space="preserve">Sport: Squash-11, </v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Sport: Squash-10, </v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v xml:space="preserve">Sport: Squash-11, </v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>F!A27&amp;"-"&amp;F!E27&amp;", "</f>
-        <v xml:space="preserve">Guns (Pistol)-9, </v>
+        <v xml:space="preserve">Guns (Pistol)-10, </v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ref="B16:B30" si="2">IF(ISNUMBER(SEARCH("-",A16)),A16,"")</f>
-        <v xml:space="preserve">Guns (Pistol)-9, </v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v xml:space="preserve">Guns (Pistol)-10, </v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>F!A28&amp;"-"&amp;F!E28&amp;", "</f>
-        <v xml:space="preserve">Dancing-11, </v>
+        <v xml:space="preserve">Dancing-12, </v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Dancing-11, </v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v xml:space="preserve">Dancing-12, </v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>F!A29&amp;"-"&amp;F!E29&amp;", "</f>
         <v xml:space="preserve">Writing-12, </v>
@@ -2004,7 +2054,7 @@
         <v xml:space="preserve">Writing-12, </v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>F!A30&amp;"-"&amp;F!E30&amp;", "</f>
         <v xml:space="preserve">Politics-10, </v>
@@ -2014,27 +2064,27 @@
         <v xml:space="preserve">Politics-10, </v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>F!A31&amp;"-"&amp;F!E31&amp;", "</f>
-        <v xml:space="preserve">Carousing-13, </v>
+        <v xml:space="preserve">Carousing-14, </v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Carousing-13, </v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="e">
+        <v xml:space="preserve">Carousing-14, </v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
         <f>F!A32&amp;"-"&amp;F!E32&amp;", "</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Sex Appeal-13, </v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v xml:space="preserve">Sex Appeal-13, </v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="e">
         <f>F!A33&amp;"-"&amp;F!E33&amp;", "</f>
         <v>#N/A</v>
@@ -2068,7 +2118,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="e">
         <f>F!A34&amp;"-"&amp;F!E34&amp;", "</f>
         <v>#N/A</v>
@@ -2078,7 +2128,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="e">
         <f>F!A35&amp;"-"&amp;F!E35&amp;", "</f>
         <v>#N/A</v>
@@ -2088,7 +2138,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="e">
         <f>F!A36&amp;"-"&amp;F!E36&amp;", "</f>
         <v>#N/A</v>
@@ -2098,7 +2148,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="e">
         <f>F!A37&amp;"-"&amp;F!E37&amp;", "</f>
         <v>#N/A</v>
@@ -2108,7 +2158,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="e">
         <f>F!A38&amp;"-"&amp;F!E38&amp;", "</f>
         <v>#N/A</v>
@@ -2118,7 +2168,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="e">
         <f>F!A39&amp;"-"&amp;F!E39&amp;", "</f>
         <v>#N/A</v>
@@ -2128,7 +2178,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="e">
         <f>F!A40&amp;"-"&amp;F!E40&amp;", "</f>
         <v>#N/A</v>
@@ -2138,7 +2188,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="e">
         <f>F!A41&amp;"-"&amp;F!E41&amp;", "</f>
         <v>#N/A</v>

--- a/haunting_mars/stats_cale.xlsx
+++ b/haunting_mars/stats_cale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FE30B2-5BEA-1F47-AED7-05263F3538A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDC3222-1D55-7140-A991-66CCCAC4B2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10780" yWindow="500" windowWidth="20460" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>ST</t>
   </si>
@@ -172,26 +172,29 @@
     <t>Cale Ortega</t>
   </si>
   <si>
-    <t>Splicer</t>
-  </si>
-  <si>
-    <t>Mesh Inserts, Cortical Stack, Basic Biomods, Handsome +2, Intersex, Pheromones</t>
-  </si>
-  <si>
     <t>LINE 2:</t>
   </si>
   <si>
-    <t>blond, 176 cm, 63 kg</t>
-  </si>
-  <si>
     <t>Sex Appeal</t>
+  </si>
+  <si>
+    <t>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Chummy</t>
+  </si>
+  <si>
+    <t>SYNTH (RR C FLEXI-SKIN)</t>
+  </si>
+  <si>
+    <t>Video Gaming</t>
+  </si>
+  <si>
+    <t>175 cm, 90 kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,6 +249,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -436,13 +445,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="165">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -949,7 +958,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,10 +1002,10 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -1005,11 +1014,11 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:H3" si="0">C4+C5</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
@@ -1017,40 +1026,40 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>44</v>
+      <c r="A4" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>11</v>
       </c>
       <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
         <v>11</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1070,7 +1079,7 @@
       </c>
       <c r="K5">
         <f>(D3+H3)/4+L5</f>
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1085,23 +1094,23 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="J7" s="5" t="s">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1109,16 +1118,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1193,11 +1202,11 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1288,11 +1297,11 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1402,11 +1411,11 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1421,11 +1430,11 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1440,11 +1449,11 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
         <v>10</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="2"/>
-        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1459,11 +1468,11 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28">
         <f>INDEX($C$3:$H$3,(MATCH($B28,$2:$2,0)-2))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1516,16 +1525,16 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -1533,29 +1542,35 @@
       <c r="C32">
         <v>-1</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
       <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E33" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H33" t="e">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E34" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1565,7 +1580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E35" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1575,7 +1590,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E36" s="1" t="e">
         <f t="shared" ref="E36:E41" si="4">H36+C36+D36</f>
         <v>#N/A</v>
@@ -1585,7 +1600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1595,7 +1610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E38" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1605,7 +1620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E39" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1615,7 +1630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E40" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1625,7 +1640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E41" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1679,25 +1694,25 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>UPPER(F!A4)&amp;": "&amp;(F!J2)</f>
-        <v>SPLICER: blond, 176 cm, 63 kg</v>
+        <v>SYNTH (RR C FLEXI-SKIN): 175 cm, 90 kg</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 11 DX 11 IQ 12 WILL 11 PER 12 HT 12</v>
+        <v>ST 12 DX 10 IQ 12 WILL 10 PER 11 HT 11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>"Speed "&amp;F!K5</f>
-        <v>Speed 5,75</v>
+        <v>Speed 5,25</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A7</f>
-        <v>Mesh Inserts, Cortical Stack, Basic Biomods, Handsome +2, Intersex, Pheromones</v>
+        <v>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Chummy</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1721,25 +1736,25 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>SkillFormulas!$G$1</f>
-        <v xml:space="preserve">Research-14, Psychology-15, Detect Lies-13, Fast Talk-14, Savoir-Faire-15, Sociology-14, </v>
+        <v xml:space="preserve">Research-14, Psychology-15, Detect Lies-12, Fast Talk-14, Savoir-Faire-15, Sociology-14, </v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>SkillFormulas!$G$2</f>
-        <v xml:space="preserve">Law-12, Karate-12, Administration-14, Public Speaking-12, Performance-12, Diplomacy-13, </v>
+        <v xml:space="preserve">Law-12, Karate-11, Administration-14, Public Speaking-12, Performance-12, Diplomacy-13, </v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>SkillFormulas!$G$3</f>
-        <v xml:space="preserve">Connoisseur (Music)-12, Free Fall-11, Sport: Squash-11, Guns (Pistol)-10, Dancing-12, Writing-12, </v>
+        <v xml:space="preserve">Connoisseur (Music)-12, Free Fall-10, Sport: Squash-10, Guns (Pistol)-9, Dancing-11, Writing-12, </v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>SkillFormulas!G4</f>
-        <v xml:space="preserve">Politics-10, Carousing-14, Sex Appeal-13, </v>
+        <v xml:space="preserve">Politics-10, Carousing-13, Sex Appeal-10, Video Gaming-11, </v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -1797,7 +1812,7 @@
       </c>
       <c r="G1" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6</f>
-        <v xml:space="preserve">Research-14, Psychology-15, Detect Lies-13, Fast Talk-14, Savoir-Faire-15, Sociology-14, </v>
+        <v xml:space="preserve">Research-14, Psychology-15, Detect Lies-12, Fast Talk-14, Savoir-Faire-15, Sociology-14, </v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1819,17 +1834,17 @@
       </c>
       <c r="G2" t="str">
         <f>B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12</f>
-        <v xml:space="preserve">Law-12, Karate-12, Administration-14, Public Speaking-12, Performance-12, Diplomacy-13, </v>
+        <v xml:space="preserve">Law-12, Karate-11, Administration-14, Public Speaking-12, Performance-12, Diplomacy-13, </v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>F!A14&amp;"-"&amp;F!E14&amp;", "</f>
-        <v xml:space="preserve">Detect Lies-13, </v>
+        <v xml:space="preserve">Detect Lies-12, </v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Detect Lies-13, </v>
+        <v xml:space="preserve">Detect Lies-12, </v>
       </c>
       <c r="D3" t="str">
         <f>F!J14&amp;", "</f>
@@ -1841,7 +1856,7 @@
       </c>
       <c r="G3" t="str">
         <f>B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18</f>
-        <v xml:space="preserve">Connoisseur (Music)-12, Free Fall-11, Sport: Squash-11, Guns (Pistol)-10, Dancing-12, Writing-12, </v>
+        <v xml:space="preserve">Connoisseur (Music)-12, Free Fall-10, Sport: Squash-10, Guns (Pistol)-9, Dancing-11, Writing-12, </v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1863,7 +1878,7 @@
       </c>
       <c r="G4" t="str">
         <f>B19&amp;B20&amp;B21&amp;B22&amp;B23&amp;B24</f>
-        <v xml:space="preserve">Politics-10, Carousing-14, Sex Appeal-13, </v>
+        <v xml:space="preserve">Politics-10, Carousing-13, Sex Appeal-10, Video Gaming-11, </v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1931,11 +1946,11 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>F!A19&amp;"-"&amp;F!E19&amp;", "</f>
-        <v xml:space="preserve">Karate-12, </v>
+        <v xml:space="preserve">Karate-11, </v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Karate-12, </v>
+        <v xml:space="preserve">Karate-11, </v>
       </c>
       <c r="D8" t="str">
         <f>F!J19&amp;", "</f>
@@ -2007,41 +2022,41 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>F!A25&amp;"-"&amp;F!E25&amp;", "</f>
-        <v xml:space="preserve">Free Fall-11, </v>
+        <v xml:space="preserve">Free Fall-10, </v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Free Fall-11, </v>
+        <v xml:space="preserve">Free Fall-10, </v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>F!A26&amp;"-"&amp;F!E26&amp;", "</f>
-        <v xml:space="preserve">Sport: Squash-11, </v>
+        <v xml:space="preserve">Sport: Squash-10, </v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Sport: Squash-11, </v>
+        <v xml:space="preserve">Sport: Squash-10, </v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>F!A27&amp;"-"&amp;F!E27&amp;", "</f>
-        <v xml:space="preserve">Guns (Pistol)-10, </v>
+        <v xml:space="preserve">Guns (Pistol)-9, </v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ref="B16:B30" si="2">IF(ISNUMBER(SEARCH("-",A16)),A16,"")</f>
-        <v xml:space="preserve">Guns (Pistol)-10, </v>
+        <v xml:space="preserve">Guns (Pistol)-9, </v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>F!A28&amp;"-"&amp;F!E28&amp;", "</f>
-        <v xml:space="preserve">Dancing-12, </v>
+        <v xml:space="preserve">Dancing-11, </v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Dancing-12, </v>
+        <v xml:space="preserve">Dancing-11, </v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2067,31 +2082,31 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>F!A31&amp;"-"&amp;F!E31&amp;", "</f>
-        <v xml:space="preserve">Carousing-14, </v>
+        <v xml:space="preserve">Carousing-13, </v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Carousing-14, </v>
+        <v xml:space="preserve">Carousing-13, </v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>F!A32&amp;"-"&amp;F!E32&amp;", "</f>
-        <v xml:space="preserve">Sex Appeal-13, </v>
+        <v xml:space="preserve">Sex Appeal-10, </v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Sex Appeal-13, </v>
+        <v xml:space="preserve">Sex Appeal-10, </v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="e">
+      <c r="A22" t="str">
         <f>F!A33&amp;"-"&amp;F!E33&amp;", "</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Video Gaming-11, </v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Video Gaming-11, </v>
       </c>
       <c r="E22" t="str">
         <f>IF(F!C5&lt;&gt;"","Somatic Aptitude "&amp;F!C5&amp;", ","")</f>

--- a/haunting_mars/stats_cale.xlsx
+++ b/haunting_mars/stats_cale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDC3222-1D55-7140-A991-66CCCAC4B2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D2C3A1-2F60-824D-877E-BE9DB25A4F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10780" yWindow="500" windowWidth="20460" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,9 +151,6 @@
     <t>Sport: Squash</t>
   </si>
   <si>
-    <t>Psychologist, born 2110, Pavonis City, Mars</t>
-  </si>
-  <si>
     <t>Guns (Pistol)</t>
   </si>
   <si>
@@ -178,22 +175,28 @@
     <t>Sex Appeal</t>
   </si>
   <si>
-    <t>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Chummy</t>
-  </si>
-  <si>
-    <t>SYNTH (RR C FLEXI-SKIN)</t>
-  </si>
-  <si>
     <t>Video Gaming</t>
   </si>
   <si>
     <t>175 cm, 90 kg</t>
+  </si>
+  <si>
+    <t>DR 4, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Fearlessness +2</t>
+  </si>
+  <si>
+    <t>SYNTH (Tetsuo Point Man)</t>
+  </si>
+  <si>
+    <t>Security specialist, born 2110, Pavonis City, Mars. Muse: Phoebe (conversationalist)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#\+0;\-#0\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -440,18 +443,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="165">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -958,7 +962,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,14 +976,14 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2"/>
       <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1002,10 +1006,10 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -1022,7 +1026,7 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
@@ -1030,7 +1034,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
@@ -1040,8 +1044,8 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>47</v>
+      <c r="A4" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -1050,13 +1054,13 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -1068,12 +1072,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
         <v>1</v>
       </c>
+      <c r="H5" s="5"/>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1094,23 +1102,23 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="A7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1118,16 +1126,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1161,11 +1169,11 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" ref="E12:E35" si="1">H12+C12+D12</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12">
         <f>INDEX($C$3:$H$3,(MATCH($B12,$2:$2,0)-2))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
         <v>25</v>
@@ -1183,11 +1191,11 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13:H29" si="2">INDEX($C$3:$H$3,(MATCH($B13,$2:$2,0)-2))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1202,11 +1210,11 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
         <v>12</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1221,11 +1229,11 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1240,11 +1248,11 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1259,11 +1267,11 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1278,11 +1286,11 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1316,11 +1324,11 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <f>INDEX($C$3:$H$3,(MATCH($B20,$2:$2,0)-2))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1335,11 +1343,11 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1354,11 +1362,11 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1373,11 +1381,11 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1392,11 +1400,11 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1439,7 +1447,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -1458,7 +1466,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -1477,7 +1485,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -1487,16 +1495,16 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -1506,11 +1514,11 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30">
         <f t="shared" ref="H30:H41" si="3">INDEX($C$3:$H$3,(MATCH($B30,$2:$2,0)-2))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1534,7 +1542,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -1553,7 +1561,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -1563,11 +1571,11 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1671,7 +1679,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1688,19 +1696,19 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>F!J1</f>
-        <v>Psychologist, born 2110, Pavonis City, Mars</v>
+        <v>Security specialist, born 2110, Pavonis City, Mars. Muse: Phoebe (conversationalist)</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>UPPER(F!A4)&amp;": "&amp;(F!J2)</f>
-        <v>SYNTH (RR C FLEXI-SKIN): 175 cm, 90 kg</v>
+        <v>SYNTH (TETSUO POINT MAN): 175 cm, 90 kg</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 12 DX 10 IQ 12 WILL 10 PER 11 HT 11</v>
+        <v>ST 12 DX 10 IQ 11 WILL 10 PER 12 HT 11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -1712,13 +1720,13 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A7</f>
-        <v>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Chummy</v>
+        <v>DR 4, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Fearlessness +2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>SkillFormulas!E22&amp;SkillFormulas!F22&amp;SkillFormulas!G22&amp;SkillFormulas!H22&amp;SkillFormulas!I22&amp;SkillFormulas!J22</f>
-        <v xml:space="preserve">Intelligence Aptitude 1, Alertness 1, </v>
+        <v xml:space="preserve">Intelligence Aptitude +1, Alertness +1, </v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -1736,25 +1744,25 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>SkillFormulas!$G$1</f>
-        <v xml:space="preserve">Research-14, Psychology-15, Detect Lies-12, Fast Talk-14, Savoir-Faire-15, Sociology-14, </v>
+        <v xml:space="preserve">Research-13, Psychology-14, Detect Lies-13, Fast Talk-13, Savoir-Faire-14, Sociology-13, </v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>SkillFormulas!$G$2</f>
-        <v xml:space="preserve">Law-12, Karate-11, Administration-14, Public Speaking-12, Performance-12, Diplomacy-13, </v>
+        <v xml:space="preserve">Law-11, Karate-11, Administration-13, Public Speaking-11, Performance-11, Diplomacy-12, </v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>SkillFormulas!$G$3</f>
-        <v xml:space="preserve">Connoisseur (Music)-12, Free Fall-10, Sport: Squash-10, Guns (Pistol)-9, Dancing-11, Writing-12, </v>
+        <v xml:space="preserve">Connoisseur (Music)-11, Free Fall-10, Sport: Squash-10, Guns (Pistol)-9, Dancing-11, Writing-11, </v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>SkillFormulas!G4</f>
-        <v xml:space="preserve">Politics-10, Carousing-13, Sex Appeal-10, Video Gaming-11, </v>
+        <v xml:space="preserve">Politics-9, Carousing-13, Sex Appeal-10, Video Gaming-10, </v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -1784,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1796,11 +1804,11 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>F!A12&amp;"-"&amp;F!E12&amp;", "</f>
-        <v xml:space="preserve">Research-14, </v>
+        <v xml:space="preserve">Research-13, </v>
       </c>
       <c r="B1" t="str">
         <f t="shared" ref="B1:B15" si="0">IF(ISNUMBER(SEARCH("-",A1)),A1,"")</f>
-        <v xml:space="preserve">Research-14, </v>
+        <v xml:space="preserve">Research-13, </v>
       </c>
       <c r="D1" t="str">
         <f>F!J12&amp;", "</f>
@@ -1812,17 +1820,17 @@
       </c>
       <c r="G1" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6</f>
-        <v xml:space="preserve">Research-14, Psychology-15, Detect Lies-12, Fast Talk-14, Savoir-Faire-15, Sociology-14, </v>
+        <v xml:space="preserve">Research-13, Psychology-14, Detect Lies-13, Fast Talk-13, Savoir-Faire-14, Sociology-13, </v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>F!A13&amp;"-"&amp;F!E13&amp;", "</f>
-        <v xml:space="preserve">Psychology-15, </v>
+        <v xml:space="preserve">Psychology-14, </v>
       </c>
       <c r="B2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Psychology-15, </v>
+        <v xml:space="preserve">Psychology-14, </v>
       </c>
       <c r="D2" t="str">
         <f>F!J13&amp;", "</f>
@@ -1834,17 +1842,17 @@
       </c>
       <c r="G2" t="str">
         <f>B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12</f>
-        <v xml:space="preserve">Law-12, Karate-11, Administration-14, Public Speaking-12, Performance-12, Diplomacy-13, </v>
+        <v xml:space="preserve">Law-11, Karate-11, Administration-13, Public Speaking-11, Performance-11, Diplomacy-12, </v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>F!A14&amp;"-"&amp;F!E14&amp;", "</f>
-        <v xml:space="preserve">Detect Lies-12, </v>
+        <v xml:space="preserve">Detect Lies-13, </v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Detect Lies-12, </v>
+        <v xml:space="preserve">Detect Lies-13, </v>
       </c>
       <c r="D3" t="str">
         <f>F!J14&amp;", "</f>
@@ -1856,17 +1864,17 @@
       </c>
       <c r="G3" t="str">
         <f>B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18</f>
-        <v xml:space="preserve">Connoisseur (Music)-12, Free Fall-10, Sport: Squash-10, Guns (Pistol)-9, Dancing-11, Writing-12, </v>
+        <v xml:space="preserve">Connoisseur (Music)-11, Free Fall-10, Sport: Squash-10, Guns (Pistol)-9, Dancing-11, Writing-11, </v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>F!A15&amp;"-"&amp;F!E15&amp;", "</f>
-        <v xml:space="preserve">Fast Talk-14, </v>
+        <v xml:space="preserve">Fast Talk-13, </v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Fast Talk-14, </v>
+        <v xml:space="preserve">Fast Talk-13, </v>
       </c>
       <c r="D4" t="str">
         <f>F!J15&amp;", "</f>
@@ -1878,17 +1886,17 @@
       </c>
       <c r="G4" t="str">
         <f>B19&amp;B20&amp;B21&amp;B22&amp;B23&amp;B24</f>
-        <v xml:space="preserve">Politics-10, Carousing-13, Sex Appeal-10, Video Gaming-11, </v>
+        <v xml:space="preserve">Politics-9, Carousing-13, Sex Appeal-10, Video Gaming-10, </v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>F!A16&amp;"-"&amp;F!E16&amp;", "</f>
-        <v xml:space="preserve">Savoir-Faire-15, </v>
+        <v xml:space="preserve">Savoir-Faire-14, </v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Savoir-Faire-15, </v>
+        <v xml:space="preserve">Savoir-Faire-14, </v>
       </c>
       <c r="D5" t="str">
         <f>F!J16&amp;", "</f>
@@ -1906,11 +1914,11 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A17&amp;"-"&amp;F!E17&amp;", "</f>
-        <v xml:space="preserve">Sociology-14, </v>
+        <v xml:space="preserve">Sociology-13, </v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Sociology-14, </v>
+        <v xml:space="preserve">Sociology-13, </v>
       </c>
       <c r="D6" t="str">
         <f>F!J17&amp;", "</f>
@@ -1924,11 +1932,11 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>F!A18&amp;"-"&amp;F!E18&amp;", "</f>
-        <v xml:space="preserve">Law-12, </v>
+        <v xml:space="preserve">Law-11, </v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Law-12, </v>
+        <v xml:space="preserve">Law-11, </v>
       </c>
       <c r="D7" t="str">
         <f>F!J18&amp;", "</f>
@@ -1964,11 +1972,11 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>F!A20&amp;"-"&amp;F!E20&amp;", "</f>
-        <v xml:space="preserve">Administration-14, </v>
+        <v xml:space="preserve">Administration-13, </v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Administration-14, </v>
+        <v xml:space="preserve">Administration-13, </v>
       </c>
       <c r="D9" t="str">
         <f>F!J20&amp;", "</f>
@@ -1982,41 +1990,41 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>F!A21&amp;"-"&amp;F!E21&amp;", "</f>
-        <v xml:space="preserve">Public Speaking-12, </v>
+        <v xml:space="preserve">Public Speaking-11, </v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Public Speaking-12, </v>
+        <v xml:space="preserve">Public Speaking-11, </v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>F!A22&amp;"-"&amp;F!E22&amp;", "</f>
-        <v xml:space="preserve">Performance-12, </v>
+        <v xml:space="preserve">Performance-11, </v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Performance-12, </v>
+        <v xml:space="preserve">Performance-11, </v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>F!A23&amp;"-"&amp;F!E23&amp;", "</f>
-        <v xml:space="preserve">Diplomacy-13, </v>
+        <v xml:space="preserve">Diplomacy-12, </v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Diplomacy-13, </v>
+        <v xml:space="preserve">Diplomacy-12, </v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>F!A24&amp;"-"&amp;F!E24&amp;", "</f>
-        <v xml:space="preserve">Connoisseur (Music)-12, </v>
+        <v xml:space="preserve">Connoisseur (Music)-11, </v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Connoisseur (Music)-12, </v>
+        <v xml:space="preserve">Connoisseur (Music)-11, </v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2062,21 +2070,21 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>F!A29&amp;"-"&amp;F!E29&amp;", "</f>
-        <v xml:space="preserve">Writing-12, </v>
+        <v xml:space="preserve">Writing-11, </v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Writing-12, </v>
+        <v xml:space="preserve">Writing-11, </v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>F!A30&amp;"-"&amp;F!E30&amp;", "</f>
-        <v xml:space="preserve">Politics-10, </v>
+        <v xml:space="preserve">Politics-9, </v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Politics-10, </v>
+        <v xml:space="preserve">Politics-9, </v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2102,34 +2110,34 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>F!A33&amp;"-"&amp;F!E33&amp;", "</f>
-        <v xml:space="preserve">Video Gaming-11, </v>
+        <v xml:space="preserve">Video Gaming-10, </v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Video Gaming-11, </v>
+        <v xml:space="preserve">Video Gaming-10, </v>
       </c>
       <c r="E22" t="str">
-        <f>IF(F!C5&lt;&gt;"","Somatic Aptitude "&amp;F!C5&amp;", ","")</f>
+        <f>IF(F!C5&lt;0,"Somatic Aptitude "&amp;F!C5&amp;", ",IF(F!C5&gt;0,"Somatic Aptitude +"&amp;F!C5&amp;", ",""))</f>
         <v/>
       </c>
       <c r="F22" t="str">
-        <f>IF(F!D5&lt;&gt;"","Coordination Aptitude "&amp;F!D5&amp;", ","")</f>
+        <f>IF(F!D5&lt;0,"Coordination Aptitude "&amp;F!D5&amp;", ",IF(F!D5&gt;0,"Coordination Aptitude +"&amp;F!D5&amp;", ",""))</f>
         <v/>
       </c>
       <c r="G22" t="str">
-        <f>IF(F!E5&lt;&gt;"","Intelligence Aptitude "&amp;F!E5&amp;", ","")</f>
-        <v xml:space="preserve">Intelligence Aptitude 1, </v>
+        <f>IF(F!E5&lt;0,"Intelligence Aptitude "&amp;F!E5&amp;", ",IF(F!E5&gt;0,"Intelligence Aptitude +"&amp;F!E5&amp;", ",""))</f>
+        <v xml:space="preserve">Intelligence Aptitude +1, </v>
       </c>
       <c r="H22" t="str">
-        <f>IF(F!F5&lt;&gt;"","Willpower Aptitude "&amp;F!F5&amp;", ","")</f>
+        <f>IF(F!F5&lt;0,"Willpower Aptitude "&amp;F!F5&amp;", ",IF(F!F5&gt;0,"Willpower Aptitude +"&amp;F!F5&amp;", ",""))</f>
         <v/>
       </c>
       <c r="I22" t="str">
-        <f>IF(F!G5&lt;&gt;"","Alertness "&amp;F!G5&amp;", ","")</f>
-        <v xml:space="preserve">Alertness 1, </v>
+        <f>IF(F!G5&lt;0,"Alertness "&amp;F!G5&amp;", ",IF(F!G5&gt;0,"Alertness +"&amp;F!G5&amp;", ",""))</f>
+        <v xml:space="preserve">Alertness +1, </v>
       </c>
       <c r="J22" t="str">
-        <f>IF(F!H5&lt;&gt;"","Endurance Aptitude "&amp;F!H5,"")</f>
+        <f>IF(F!H5&lt;0,"Endurance Aptitude "&amp;F!H5&amp;", ",IF(F!H5&gt;0,"Endurance Aptitude +"&amp;F!H5&amp;", ",""))</f>
         <v/>
       </c>
     </row>

--- a/haunting_mars/stats_cale.xlsx
+++ b/haunting_mars/stats_cale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D2C3A1-2F60-824D-877E-BE9DB25A4F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFBA4A9-D274-954C-9681-7BA40C2AD49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10780" yWindow="500" windowWidth="20460" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,16 +178,16 @@
     <t>Video Gaming</t>
   </si>
   <si>
-    <t>175 cm, 90 kg</t>
-  </si>
-  <si>
-    <t>DR 4, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Fearlessness +2</t>
-  </si>
-  <si>
-    <t>SYNTH (Tetsuo Point Man)</t>
-  </si>
-  <si>
     <t>Security specialist, born 2110, Pavonis City, Mars. Muse: Phoebe (conversationalist)</t>
+  </si>
+  <si>
+    <t>Pod</t>
+  </si>
+  <si>
+    <t>180 cm, 76 kg</t>
+  </si>
+  <si>
+    <t>Mesh Inserts, Cyberbrain, Cortical Stack, Mnemonic Augmentation, Access Jacks, Social Stigma: Pod</t>
   </si>
 </sst>
 </file>
@@ -197,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\+0;\-#0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,12 +248,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -443,14 +437,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -983,7 +976,7 @@
         <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1009,7 +1002,7 @@
         <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -1018,7 +1011,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:H3" si="0">C4+C5</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
@@ -1034,7 +1027,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
@@ -1044,11 +1037,11 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>48</v>
+      <c r="A4" t="s">
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1060,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -1072,16 +1065,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="4"/>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1102,23 +1095,23 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="7" t="s">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1126,16 +1119,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1210,11 +1203,11 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1453,11 +1446,11 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
@@ -1702,13 +1695,13 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>UPPER(F!A4)&amp;": "&amp;(F!J2)</f>
-        <v>SYNTH (TETSUO POINT MAN): 175 cm, 90 kg</v>
+        <v>POD: 180 cm, 76 kg</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 12 DX 10 IQ 11 WILL 10 PER 12 HT 11</v>
+        <v>ST 10 DX 10 IQ 11 WILL 10 PER 11 HT 11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -1720,7 +1713,7 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A7</f>
-        <v>DR 4, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Fearlessness +2</v>
+        <v>Mesh Inserts, Cyberbrain, Cortical Stack, Mnemonic Augmentation, Access Jacks, Social Stigma: Pod</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1744,7 +1737,7 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>SkillFormulas!$G$1</f>
-        <v xml:space="preserve">Research-13, Psychology-14, Detect Lies-13, Fast Talk-13, Savoir-Faire-14, Sociology-13, </v>
+        <v xml:space="preserve">Research-13, Psychology-14, Detect Lies-12, Fast Talk-13, Savoir-Faire-14, Sociology-13, </v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -1756,7 +1749,7 @@
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>SkillFormulas!$G$3</f>
-        <v xml:space="preserve">Connoisseur (Music)-11, Free Fall-10, Sport: Squash-10, Guns (Pistol)-9, Dancing-11, Writing-11, </v>
+        <v xml:space="preserve">Connoisseur (Music)-11, Free Fall-10, Sport: Squash-10, Guns (Pistol)-10, Dancing-11, Writing-11, </v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -1820,7 +1813,7 @@
       </c>
       <c r="G1" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6</f>
-        <v xml:space="preserve">Research-13, Psychology-14, Detect Lies-13, Fast Talk-13, Savoir-Faire-14, Sociology-13, </v>
+        <v xml:space="preserve">Research-13, Psychology-14, Detect Lies-12, Fast Talk-13, Savoir-Faire-14, Sociology-13, </v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1848,11 +1841,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>F!A14&amp;"-"&amp;F!E14&amp;", "</f>
-        <v xml:space="preserve">Detect Lies-13, </v>
+        <v xml:space="preserve">Detect Lies-12, </v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Detect Lies-13, </v>
+        <v xml:space="preserve">Detect Lies-12, </v>
       </c>
       <c r="D3" t="str">
         <f>F!J14&amp;", "</f>
@@ -1864,7 +1857,7 @@
       </c>
       <c r="G3" t="str">
         <f>B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18</f>
-        <v xml:space="preserve">Connoisseur (Music)-11, Free Fall-10, Sport: Squash-10, Guns (Pistol)-9, Dancing-11, Writing-11, </v>
+        <v xml:space="preserve">Connoisseur (Music)-11, Free Fall-10, Sport: Squash-10, Guns (Pistol)-10, Dancing-11, Writing-11, </v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2050,11 +2043,11 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>F!A27&amp;"-"&amp;F!E27&amp;", "</f>
-        <v xml:space="preserve">Guns (Pistol)-9, </v>
+        <v xml:space="preserve">Guns (Pistol)-10, </v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ref="B16:B30" si="2">IF(ISNUMBER(SEARCH("-",A16)),A16,"")</f>
-        <v xml:space="preserve">Guns (Pistol)-9, </v>
+        <v xml:space="preserve">Guns (Pistol)-10, </v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
